--- a/Data Files/data_pengguna.xlsx
+++ b/Data Files/data_pengguna.xlsx
@@ -35,7 +35,7 @@
     <t>selfhyginting</t>
   </si>
   <si>
-    <t>selfhy123</t>
+    <t>RvshYMyF6EzbJOyO9qmYGA==</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
